--- a/wdf_baseline_recode_file.xlsx
+++ b/wdf_baseline_recode_file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="study_title" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="689">
   <si>
     <t>pos</t>
   </si>
@@ -2092,6 +2092,9 @@
   </si>
   <si>
     <t>Korogocho and Viwandani</t>
+  </si>
+  <si>
+    <t>cross-sectional</t>
   </si>
 </sst>
 </file>
@@ -2494,11 +2497,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="67.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -2528,7 +2535,9 @@
       <c r="B2" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>688</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>687</v>
@@ -5933,7 +5942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M237"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:F198"/>
     </sheetView>
   </sheetViews>
@@ -16262,7 +16271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G2"/>
     </sheetView>
   </sheetViews>

--- a/wdf_baseline_recode_file.xlsx
+++ b/wdf_baseline_recode_file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="study_title" sheetId="5" r:id="rId1"/>
@@ -2094,7 +2094,7 @@
     <t>Korogocho and Viwandani</t>
   </si>
   <si>
-    <t>cross-sectional</t>
+    <t>effect_size_threshold</t>
   </si>
 </sst>
 </file>
@@ -2497,15 +2497,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="67.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -2535,9 +2531,7 @@
       <c r="B2" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>688</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
         <v>687</v>
@@ -2554,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5942,8 +5936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F198"/>
+    <sheetView topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -15690,8 +15684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -16269,10 +16263,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16284,9 +16278,10 @@
     <col min="5" max="5" width="13.54296875" customWidth="1"/>
     <col min="6" max="6" width="12.90625" customWidth="1"/>
     <col min="7" max="7" width="5.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -16308,8 +16303,11 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1111</v>
       </c>
@@ -16330,6 +16328,9 @@
       </c>
       <c r="G2">
         <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/wdf_baseline_recode_file.xlsx
+++ b/wdf_baseline_recode_file.xlsx
@@ -1698,9 +1698,6 @@
     <t>currently use any smokeless tobacco variable used</t>
   </si>
   <si>
-    <t>age numeric variable used</t>
-  </si>
-  <si>
     <t>wdf_q2_7a_b_c_d</t>
   </si>
   <si>
@@ -2095,6 +2092,9 @@
   </si>
   <si>
     <t>effect_size_threshold</t>
+  </si>
+  <si>
+    <t>age grouped variable used</t>
   </si>
 </sst>
 </file>
@@ -2509,19 +2509,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>684</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2529,12 +2529,12 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -2571,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -2645,7 +2645,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2951,7 +2951,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26" x14ac:dyDescent="0.3">
@@ -3782,7 +3782,7 @@
         <v>139</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3816,7 +3816,7 @@
         <v>143</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -3850,7 +3850,7 @@
         <v>147</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3884,7 +3884,7 @@
         <v>151</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -3918,7 +3918,7 @@
         <v>155</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3952,7 +3952,7 @@
         <v>159</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3986,7 +3986,7 @@
         <v>163</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -4020,7 +4020,7 @@
         <v>167</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -4054,7 +4054,7 @@
         <v>171</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -4235,13 +4235,13 @@
         <v>192</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>193</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -4343,7 +4343,7 @@
         <v>205</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -4479,7 +4479,7 @@
         <v>222</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4496,7 +4496,7 @@
         <v>224</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -4632,7 +4632,7 @@
         <v>240</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -4666,7 +4666,7 @@
         <v>244</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -4700,7 +4700,7 @@
         <v>248</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -4717,7 +4717,7 @@
         <v>250</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -4836,7 +4836,7 @@
         <v>264</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -5193,7 +5193,7 @@
         <v>305</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -5261,7 +5261,7 @@
         <v>313</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -5329,7 +5329,7 @@
         <v>321</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="26" x14ac:dyDescent="0.3">
@@ -5448,7 +5448,7 @@
         <v>335</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="26" x14ac:dyDescent="0.3">
@@ -5465,7 +5465,7 @@
         <v>337</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -5482,7 +5482,7 @@
         <v>339</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -5499,7 +5499,7 @@
         <v>341</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="26" x14ac:dyDescent="0.3">
@@ -5516,7 +5516,7 @@
         <v>343</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="26" x14ac:dyDescent="0.3">
@@ -5533,7 +5533,7 @@
         <v>345</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="26" x14ac:dyDescent="0.3">
@@ -5550,7 +5550,7 @@
         <v>347</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -5567,7 +5567,7 @@
         <v>349</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -5584,7 +5584,7 @@
         <v>351</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -5601,7 +5601,7 @@
         <v>353</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -5635,7 +5635,7 @@
         <v>357</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -5936,7 +5936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M237"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
@@ -5966,7 +5966,7 @@
         <v>545</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -5978,25 +5978,25 @@
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -6133,7 +6133,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>488</v>
@@ -6142,7 +6142,7 @@
         <v>491</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>535</v>
@@ -6871,7 +6871,7 @@
         <v>62</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>488</v>
@@ -8880,7 +8880,7 @@
         <v>138</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>489</v>
@@ -8962,7 +8962,7 @@
         <v>142</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>489</v>
@@ -9044,7 +9044,7 @@
         <v>146</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>489</v>
@@ -9126,7 +9126,7 @@
         <v>150</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>489</v>
@@ -9208,7 +9208,7 @@
         <v>154</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>489</v>
@@ -9290,7 +9290,7 @@
         <v>158</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>488</v>
@@ -9372,7 +9372,7 @@
         <v>162</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>489</v>
@@ -9454,7 +9454,7 @@
         <v>166</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>489</v>
@@ -9536,7 +9536,7 @@
         <v>170</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>488</v>
@@ -9984,10 +9984,10 @@
         <v>544</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>488</v>
@@ -10233,7 +10233,7 @@
         <v>204</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>488</v>
@@ -10561,7 +10561,7 @@
         <v>221</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>488</v>
@@ -10602,7 +10602,7 @@
         <v>223</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>488</v>
@@ -10930,13 +10930,13 @@
         <v>239</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>492</v>
@@ -11012,13 +11012,13 @@
         <v>243</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>492</v>
@@ -11094,13 +11094,13 @@
         <v>247</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>492</v>
@@ -11135,13 +11135,13 @@
         <v>249</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>492</v>
@@ -11182,7 +11182,7 @@
         <v>488</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>492</v>
@@ -11223,7 +11223,7 @@
         <v>488</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>492</v>
@@ -11264,7 +11264,7 @@
         <v>488</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>492</v>
@@ -11305,7 +11305,7 @@
         <v>488</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>492</v>
@@ -11346,7 +11346,7 @@
         <v>488</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>492</v>
@@ -11387,7 +11387,7 @@
         <v>488</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>492</v>
@@ -11422,13 +11422,13 @@
         <v>263</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>492</v>
@@ -11551,7 +11551,7 @@
         <v>488</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>492</v>
@@ -11592,7 +11592,7 @@
         <v>488</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>492</v>
@@ -11674,7 +11674,7 @@
         <v>488</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>492</v>
@@ -11961,7 +11961,7 @@
         <v>488</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>492</v>
@@ -12002,7 +12002,7 @@
         <v>488</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>492</v>
@@ -12125,7 +12125,7 @@
         <v>488</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>492</v>
@@ -12166,7 +12166,7 @@
         <v>488</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>492</v>
@@ -12283,13 +12283,13 @@
         <v>304</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>492</v>
@@ -12330,7 +12330,7 @@
         <v>488</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>492</v>
@@ -12447,13 +12447,13 @@
         <v>312</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>492</v>
@@ -12494,7 +12494,7 @@
         <v>488</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>492</v>
@@ -12611,13 +12611,13 @@
         <v>320</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>492</v>
@@ -12658,7 +12658,7 @@
         <v>488</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>492</v>
@@ -12863,7 +12863,7 @@
         <v>488</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>492</v>
@@ -12898,7 +12898,7 @@
         <v>334</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>488</v>
@@ -12916,7 +12916,7 @@
         <v>493</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K170" s="8" t="s">
         <v>492</v>
@@ -12939,7 +12939,7 @@
         <v>336</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>488</v>
@@ -12957,7 +12957,7 @@
         <v>493</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K171" s="8" t="s">
         <v>492</v>
@@ -12980,7 +12980,7 @@
         <v>338</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>488</v>
@@ -12998,7 +12998,7 @@
         <v>493</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K172" s="8" t="s">
         <v>492</v>
@@ -13021,7 +13021,7 @@
         <v>340</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>488</v>
@@ -13039,7 +13039,7 @@
         <v>493</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K173" s="8" t="s">
         <v>492</v>
@@ -13062,7 +13062,7 @@
         <v>342</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>488</v>
@@ -13080,7 +13080,7 @@
         <v>493</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K174" s="8" t="s">
         <v>492</v>
@@ -13103,7 +13103,7 @@
         <v>344</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>488</v>
@@ -13121,7 +13121,7 @@
         <v>493</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K175" s="8" t="s">
         <v>492</v>
@@ -13144,7 +13144,7 @@
         <v>346</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>488</v>
@@ -13162,7 +13162,7 @@
         <v>493</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K176" s="8" t="s">
         <v>492</v>
@@ -13185,7 +13185,7 @@
         <v>348</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>488</v>
@@ -13203,7 +13203,7 @@
         <v>493</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K177" s="8" t="s">
         <v>492</v>
@@ -13226,7 +13226,7 @@
         <v>350</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>488</v>
@@ -13244,7 +13244,7 @@
         <v>493</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K178" s="8" t="s">
         <v>492</v>
@@ -13267,7 +13267,7 @@
         <v>352</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>488</v>
@@ -13285,7 +13285,7 @@
         <v>493</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K179" s="8" t="s">
         <v>492</v>
@@ -13349,7 +13349,7 @@
         <v>356</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>489</v>
@@ -14128,7 +14128,7 @@
         <v>496</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>488</v>
@@ -14169,7 +14169,7 @@
         <v>497</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>488</v>
@@ -14178,7 +14178,7 @@
         <v>491</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H201" s="5" t="s">
         <v>535</v>
@@ -14251,7 +14251,7 @@
         <v>500</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>488</v>
@@ -14333,7 +14333,7 @@
         <v>503</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>489</v>
@@ -14421,7 +14421,7 @@
         <v>488</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>492</v>
@@ -14462,7 +14462,7 @@
         <v>488</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>492</v>
@@ -14503,7 +14503,7 @@
         <v>488</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>492</v>
@@ -14544,7 +14544,7 @@
         <v>488</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>492</v>
@@ -14585,7 +14585,7 @@
         <v>488</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>492</v>
@@ -14626,7 +14626,7 @@
         <v>488</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>492</v>
@@ -14658,16 +14658,16 @@
         <v>543</v>
       </c>
       <c r="C213" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D213" s="9" t="s">
         <v>647</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>648</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>492</v>
@@ -14699,16 +14699,16 @@
         <v>543</v>
       </c>
       <c r="C214" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="D214" s="9" t="s">
         <v>643</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>644</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>488</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>492</v>
@@ -14743,7 +14743,7 @@
         <v>512</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>488</v>
@@ -14784,7 +14784,7 @@
         <v>513</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>488</v>
@@ -14948,7 +14948,7 @@
         <v>520</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>488</v>
@@ -14989,7 +14989,7 @@
         <v>521</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>488</v>
@@ -15030,7 +15030,7 @@
         <v>522</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>488</v>
@@ -15071,7 +15071,7 @@
         <v>523</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>488</v>
@@ -15109,10 +15109,10 @@
         <v>543</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>488</v>
@@ -15150,10 +15150,10 @@
         <v>543</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>488</v>
@@ -15191,10 +15191,10 @@
         <v>543</v>
       </c>
       <c r="C226" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>675</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>676</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>488</v>
@@ -15232,7 +15232,7 @@
         <v>543</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>530</v>
@@ -15273,10 +15273,10 @@
         <v>543</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>488</v>
@@ -15314,7 +15314,7 @@
         <v>543</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>539</v>
@@ -15355,10 +15355,10 @@
         <v>543</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>488</v>
@@ -15396,10 +15396,10 @@
         <v>543</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>488</v>
@@ -15437,10 +15437,10 @@
         <v>543</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>488</v>
@@ -15490,7 +15490,7 @@
         <v>532</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H233" s="5" t="s">
         <v>546</v>
@@ -15519,10 +15519,10 @@
         <v>543</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>489</v>
@@ -15560,10 +15560,10 @@
         <v>543</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>488</v>
@@ -15601,16 +15601,16 @@
         <v>543</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>489</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>492</v>
@@ -15642,16 +15642,16 @@
         <v>543</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>488</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>492</v>
@@ -15684,8 +15684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -15697,7 +15697,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>9</v>
@@ -15708,7 +15708,7 @@
         <v>334</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15716,7 +15716,7 @@
         <v>336</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -15724,7 +15724,7 @@
         <v>338</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -15732,7 +15732,7 @@
         <v>340</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -15740,7 +15740,7 @@
         <v>342</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -15748,7 +15748,7 @@
         <v>344</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15756,7 +15756,7 @@
         <v>346</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -15764,7 +15764,7 @@
         <v>348</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -15772,7 +15772,7 @@
         <v>350</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15780,15 +15780,15 @@
         <v>352</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -15836,7 +15836,7 @@
         <v>211</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -15844,7 +15844,7 @@
         <v>223</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -15852,7 +15852,7 @@
         <v>227</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -15860,7 +15860,7 @@
         <v>229</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -15868,7 +15868,7 @@
         <v>231</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -15876,7 +15876,7 @@
         <v>233</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -15884,7 +15884,7 @@
         <v>235</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -15892,7 +15892,7 @@
         <v>237</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -15900,7 +15900,7 @@
         <v>384</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -15908,7 +15908,7 @@
         <v>386</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -15916,15 +15916,15 @@
         <v>522</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>556</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -15932,7 +15932,7 @@
         <v>498</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -15940,7 +15940,7 @@
         <v>514</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -15948,7 +15948,7 @@
         <v>516</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -15956,7 +15956,7 @@
         <v>518</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -15964,7 +15964,7 @@
         <v>523</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -15972,7 +15972,7 @@
         <v>239</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -15980,7 +15980,7 @@
         <v>243</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -15988,7 +15988,7 @@
         <v>247</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -15996,7 +15996,7 @@
         <v>249</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -16004,7 +16004,7 @@
         <v>251</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -16012,7 +16012,7 @@
         <v>253</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -16020,7 +16020,7 @@
         <v>255</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -16028,7 +16028,7 @@
         <v>257</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -16036,7 +16036,7 @@
         <v>259</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -16044,7 +16044,7 @@
         <v>261</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -16052,7 +16052,7 @@
         <v>263</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -16060,7 +16060,7 @@
         <v>269</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -16068,7 +16068,7 @@
         <v>271</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -16076,7 +16076,7 @@
         <v>274</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -16084,7 +16084,7 @@
         <v>288</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -16092,7 +16092,7 @@
         <v>290</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -16100,7 +16100,7 @@
         <v>296</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -16108,7 +16108,7 @@
         <v>298</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -16116,7 +16116,7 @@
         <v>304</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -16124,7 +16124,7 @@
         <v>306</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -16132,7 +16132,7 @@
         <v>312</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -16140,7 +16140,7 @@
         <v>314</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -16148,7 +16148,7 @@
         <v>320</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -16156,7 +16156,7 @@
         <v>322</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -16164,7 +16164,7 @@
         <v>506</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -16172,7 +16172,7 @@
         <v>507</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -16180,7 +16180,7 @@
         <v>508</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -16188,7 +16188,7 @@
         <v>509</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -16196,23 +16196,23 @@
         <v>510</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -16220,7 +16220,7 @@
         <v>42</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -16228,31 +16228,31 @@
         <v>62</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -16304,7 +16304,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -16353,98 +16353,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" t="s">
         <v>561</v>
-      </c>
-      <c r="B2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" t="s">
         <v>565</v>
-      </c>
-      <c r="B5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" t="s">
         <v>567</v>
-      </c>
-      <c r="B6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" t="s">
         <v>577</v>
-      </c>
-      <c r="B7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" t="s">
         <v>569</v>
-      </c>
-      <c r="B8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" t="s">
         <v>571</v>
-      </c>
-      <c r="B9" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" t="s">
         <v>573</v>
-      </c>
-      <c r="B10" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" t="s">
         <v>575</v>
-      </c>
-      <c r="B11" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>640</v>
+      </c>
+      <c r="B12" t="s">
         <v>641</v>
-      </c>
-      <c r="B12" t="s">
-        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -16468,10 +16468,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -16479,7 +16479,7 @@
         <v>533</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
